--- a/20240606interferometria/dati_interferometria.xlsx
+++ b/20240606interferometria/dati_interferometria.xlsx
@@ -3,59 +3,163 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="valore teta legge2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="legge3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="michelson " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="indice_rifrazione_vetro" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="indice rifrazione aria" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raggio interferenza 1 (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raggio interferenza 2 (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raggio interferenza 3 (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma raggio (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raggio (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigmaraggio (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distanza (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spessore lente (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valore focale lente</t>
+  </si>
+  <si>
+    <t>18mm</t>
+  </si>
+  <si>
+    <t>deltaN</t>
+  </si>
+  <si>
+    <t>deltaD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di (deg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Df (deg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xdsw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaP (kpa)</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -387,74 +491,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,7 +506,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -488,7 +532,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -577,7 +621,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -614,9 +658,684 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="23.7109375"/>
+    <col customWidth="1" min="3" max="4" width="30.28125"/>
+    <col customWidth="1" min="5" max="6" width="19.140625"/>
+    <col customWidth="1" min="7" max="7" width="18.57421875"/>
+    <col customWidth="1" min="8" max="8" width="19.8515625"/>
+    <col customWidth="1" min="9" max="9" width="21.57421875"/>
+    <col customWidth="1" min="10" max="10" width="16.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F9" si="0">AVERAGE(B2:D2)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G9" si="1">STDEV(B2:D2)*3/2</f>
+        <v>0.3122498999199198</v>
+      </c>
+      <c r="H2">
+        <v>177.5</v>
+      </c>
+      <c r="I2">
+        <v>6.6500000000000004</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4333333333333336</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43301270189221941</v>
+      </c>
+      <c r="H3">
+        <v>177.59999999999999</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.3999999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.3999999999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4333333333333336</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.086602540378443948</v>
+      </c>
+      <c r="H4">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.08660254037844356</v>
+      </c>
+      <c r="H5">
+        <v>177.40000000000001</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.7000000000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.6333333333333337</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.086602540378444337</v>
+      </c>
+      <c r="H6">
+        <v>177.30000000000001</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.2000000000000002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000013</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.5999999999999996</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.4000000000000004</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.5999999999999996</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5333333333333341</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17320508075688712</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.0999999999999996</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.7999999999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>5.9666666666666659</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22912878474779191</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.4000000000000004</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.2000000000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6.4000000000000004</v>
+      </c>
+      <c r="F10" s="5">
+        <f>AVERAGE(B10:D10)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G10" s="5">
+        <f>STDEV(B10:D10)*3/2</f>
+        <v>0.1732050807568879</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="6">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="6">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="6">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="6">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="6">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="6">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="6">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="6">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D2:D9" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="D2:D9"/>
+  </sortState>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>-2.3999999999999999</v>
+      </c>
+      <c r="B2">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>-2.3999999999999999</v>
+      </c>
+      <c r="B3">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>-2.3999999999999999</v>
+      </c>
+      <c r="B4">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>-2.3999999999999999</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>-2.3999999999999999</v>
+      </c>
+      <c r="B6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="6">
+        <v>-2.3999999999999999</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20240606interferometria/dati_interferometria.xlsx
+++ b/20240606interferometria/dati_interferometria.xlsx
@@ -10,15 +10,15 @@
     <sheet name="legge3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="michelson " sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="indice_rifrazione_vetro" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="indice rifrazione aria" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="indice_aria" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="righello" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>N</t>
   </si>
@@ -65,13 +65,22 @@
     <t xml:space="preserve">Df (deg)</t>
   </si>
   <si>
-    <t xml:space="preserve"> xdsw3</t>
-  </si>
-  <si>
     <t xml:space="preserve">deltaP (kpa)</t>
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaY (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L righello che avanza dal tavolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dtavolo (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma_visibilità (1.5cm)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -150,6 +159,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,6 +1162,9 @@
       <c r="B2">
         <v>-1.1000000000000001</v>
       </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
@@ -1160,6 +1173,9 @@
       <c r="B3">
         <v>0.10000000000000001</v>
       </c>
+      <c r="C3" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
@@ -1168,6 +1184,9 @@
       <c r="B4">
         <v>0.80000000000000004</v>
       </c>
+      <c r="C4" s="6">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
@@ -1176,6 +1195,9 @@
       <c r="B5">
         <v>3.5</v>
       </c>
+      <c r="C5" s="6">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
@@ -1184,6 +1206,9 @@
       <c r="B6">
         <v>4.5999999999999996</v>
       </c>
+      <c r="C6" s="6">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="6">
@@ -1191,6 +1216,9 @@
       </c>
       <c r="B7" s="6">
         <v>5.2000000000000002</v>
+      </c>
+      <c r="C7" s="6">
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="14.25"/>
@@ -1213,7 +1241,101 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1231,105 +1353,79 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="25.00390625"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
       <c r="A2">
+        <v>69</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>62.700000000000003</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>61.200000000000003</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>59.600000000000001</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>56.200000000000003</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>56.5</v>
+      </c>
+      <c r="B7">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="8" ht="14.25">
       <c r="B8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>85</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/20240606interferometria/dati_interferometria.xlsx
+++ b/20240606interferometria/dati_interferometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="valore teta legge2" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>N</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>deltaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaD (micrometri)</t>
   </si>
   <si>
     <t>deltaD</t>
@@ -147,7 +150,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -159,7 +162,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,6 +980,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="18.421875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
@@ -989,26 +994,26 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1021,21 +1026,24 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B7" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="B2:B7"/>
+  </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1057,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1146,10 +1154,10 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1237,17 +1245,17 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1360,34 +1368,34 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
         <v>69</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="C2">
         <v>129.69999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
         <v>62.700000000000003</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>3.5</v>
       </c>
     </row>

--- a/20240606interferometria/dati_interferometria.xlsx
+++ b/20240606interferometria/dati_interferometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="valore teta legge2" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>N</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">deltaP (kpa)</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
   <si>
     <t xml:space="preserve">deltaY (cm)</t>
@@ -1062,7 +1059,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>10.5</v>
@@ -1102,7 +1099,7 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="6">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -1246,6 +1243,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="19.57421875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1254,40 +1254,37 @@
       <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="6">
@@ -1295,47 +1292,47 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="12">
@@ -1343,10 +1340,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>-85</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B12" columnSort="0">
+    <sortCondition sortBy="value" descending="1" ref="B2:B12"/>
+  </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1363,18 +1363,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.00390625"/>
+    <col customWidth="1" min="1" max="1" width="10.28125"/>
+    <col customWidth="1" min="2" max="2" width="39.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1388,7 +1389,7 @@
         <v>129.69999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -1431,11 +1432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="B8">
-        <v>4.5</v>
-      </c>
-    </row>
+    <row r="8" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/20240606interferometria/dati_interferometria.xlsx
+++ b/20240606interferometria/dati_interferometria.xlsx
@@ -1365,6 +1365,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="10.28125"/>
     <col customWidth="1" min="2" max="2" width="39.00390625"/>
+    <col customWidth="1" min="3" max="3" width="16.421875"/>
+    <col customWidth="1" min="4" max="4" width="22.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
